--- a/doc/6. 내항 여객선 항로 위해요소 사진 데이터.xlsx
+++ b/doc/6. 내항 여객선 항로 위해요소 사진 데이터.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\빅데이터실\해양교통빅데이터실\0.빅데이터실\해양수산 빅데이터 플랫폼 및 센터 구축 사업\운항데이터\6. 내항 여객선 항로 위해요소 데이터\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LGY\Desktop\DEVELOP\GIT\blueOcean\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -194,10 +194,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>위해요소 내용</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>위해요소 사진 파일명</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -743,6 +739,25 @@
   </si>
   <si>
     <t>연도교 공사구간 주의가 필요</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">위해요소 내용
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(데이터 길이 맞지않음 50 -&gt; 100)</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -753,7 +768,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -854,8 +869,33 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -878,6 +918,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -905,7 +950,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,8 +968,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,8 +1060,15 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
+    <cellStyle name="나쁨" xfId="7" builtinId="27"/>
     <cellStyle name="나쁨 2" xfId="5"/>
     <cellStyle name="쉼표 [0] 2" xfId="2"/>
     <cellStyle name="좋음 2" xfId="6"/>
@@ -1304,7 +1359,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1372,7 +1427,7 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="6" t="s">
@@ -1473,11 +1528,11 @@
       <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="5"/>
@@ -1545,28 +1600,28 @@
     </row>
     <row r="3" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>1</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="F3" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -1634,28 +1689,28 @@
     </row>
     <row r="4" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="7">
         <v>2</v>
       </c>
       <c r="C4" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -1723,28 +1778,28 @@
     </row>
     <row r="5" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" s="7">
         <v>3</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="20" t="s">
-        <v>27</v>
-      </c>
       <c r="H5" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="5"/>
@@ -1824,28 +1879,28 @@
     </row>
     <row r="6" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="7">
         <v>4</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="5"/>
@@ -1925,24 +1980,24 @@
     </row>
     <row r="7" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="27">
         <v>1</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
       <c r="F7" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -2022,24 +2077,24 @@
     </row>
     <row r="8" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="27">
         <v>2</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -2119,24 +2174,24 @@
     </row>
     <row r="9" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="27">
         <v>1</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
       <c r="F9" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -2215,24 +2270,24 @@
     </row>
     <row r="10" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B10" s="27">
         <v>2</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
       <c r="F10" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -2311,24 +2366,24 @@
     </row>
     <row r="11" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="27">
         <v>3</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D11" s="26"/>
       <c r="E11" s="26"/>
       <c r="F11" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -2407,24 +2462,24 @@
     </row>
     <row r="12" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="27">
         <v>4</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D12" s="25"/>
       <c r="E12" s="26"/>
       <c r="F12" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="14"/>
       <c r="J12" s="14"/>
@@ -2503,24 +2558,24 @@
     </row>
     <row r="13" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B13" s="27">
         <v>5</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -2571,24 +2626,24 @@
     </row>
     <row r="14" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="27">
         <v>1</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -2673,24 +2728,24 @@
     </row>
     <row r="15" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="27">
         <v>2</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H15" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -2741,24 +2796,24 @@
     </row>
     <row r="16" spans="1:88" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="27">
         <v>3</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D16" s="23"/>
       <c r="E16" s="23"/>
       <c r="F16" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -2809,24 +2864,24 @@
     </row>
     <row r="17" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B17" s="27">
         <v>4</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D17" s="23"/>
       <c r="E17" s="23"/>
       <c r="F17" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H17" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
@@ -2877,24 +2932,24 @@
     </row>
     <row r="18" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B18" s="27">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="23"/>
       <c r="E18" s="23"/>
       <c r="F18" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H18" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
@@ -2945,24 +3000,24 @@
     </row>
     <row r="19" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="27">
         <v>6</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D19" s="23"/>
       <c r="E19" s="23"/>
       <c r="F19" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H19" s="26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
@@ -3013,24 +3068,24 @@
     </row>
     <row r="20" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D20" s="23"/>
       <c r="E20" s="23"/>
       <c r="F20" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H20" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
@@ -3081,24 +3136,24 @@
     </row>
     <row r="21" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B21" s="27">
         <v>2</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="23"/>
       <c r="F21" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H21" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
@@ -3149,24 +3204,24 @@
     </row>
     <row r="22" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="27">
         <v>3</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="23"/>
       <c r="E22" s="23"/>
       <c r="F22" s="18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H22" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
@@ -3217,26 +3272,26 @@
     </row>
     <row r="23" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" s="27">
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D23" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="E23" s="23" t="s">
         <v>119</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>120</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H23" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
@@ -3316,26 +3371,26 @@
     </row>
     <row r="24" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B24" s="27">
         <v>2</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D24" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="E24" s="23" t="s">
         <v>121</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>122</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H24" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
@@ -3415,26 +3470,26 @@
     </row>
     <row r="25" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B25" s="27">
         <v>3</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="23" t="s">
         <v>123</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>124</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H25" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
@@ -3515,24 +3570,24 @@
     </row>
     <row r="26" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B26" s="27">
         <v>4</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
       <c r="F26" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" s="5"/>
@@ -3612,24 +3667,24 @@
     </row>
     <row r="27" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B27" s="27">
         <v>1</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="26"/>
       <c r="E27" s="26"/>
       <c r="F27" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H27" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" s="5"/>
       <c r="J27" s="5"/>
@@ -3709,24 +3764,24 @@
     </row>
     <row r="28" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="27">
         <v>2</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D28" s="26"/>
       <c r="E28" s="26"/>
       <c r="F28" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
@@ -3807,24 +3862,24 @@
     </row>
     <row r="29" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="27">
         <v>3</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="26"/>
       <c r="E29" s="26"/>
       <c r="F29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H29" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -3905,24 +3960,24 @@
     </row>
     <row r="30" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B30" s="27">
         <v>4</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
       <c r="F30" s="18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H30" s="26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -4003,26 +4058,26 @@
     </row>
     <row r="31" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31" s="27">
         <v>1</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H31" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
@@ -4103,24 +4158,24 @@
     </row>
     <row r="32" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32" s="27">
         <v>2</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
       <c r="F32" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H32" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I32" s="5"/>
       <c r="J32" s="5"/>
@@ -4201,26 +4256,26 @@
     </row>
     <row r="33" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B33" s="27">
         <v>1</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D33" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="26" t="s">
         <v>84</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>85</v>
       </c>
       <c r="F33" s="7"/>
       <c r="G33" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H33" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -4301,26 +4356,26 @@
     </row>
     <row r="34" spans="1:84" s="4" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B34" s="27">
         <v>2</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="26" t="s">
         <v>86</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>87</v>
       </c>
       <c r="F34" s="7"/>
       <c r="G34" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H34" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I34" s="5"/>
       <c r="J34" s="5"/>
@@ -4401,258 +4456,258 @@
     </row>
     <row r="35" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B35" s="27">
         <v>3</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="F35" s="7"/>
       <c r="G35" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H35" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="36" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" s="27">
         <v>4</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="26" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>91</v>
       </c>
       <c r="F36" s="7"/>
       <c r="G36" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H36" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B37" s="27">
         <v>5</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F37" s="7"/>
       <c r="G37" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H37" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B38" s="27">
         <v>6</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="26" t="s">
         <v>94</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>95</v>
       </c>
       <c r="F38" s="7"/>
       <c r="G38" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H38" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B39" s="27">
         <v>7</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E39" s="26" t="s">
         <v>96</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>97</v>
       </c>
       <c r="F39" s="7"/>
       <c r="G39" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H39" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B40" s="27">
         <v>8</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="26" t="s">
         <v>98</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>99</v>
       </c>
       <c r="F40" s="7"/>
       <c r="G40" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H40" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="27">
         <v>9</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D41" s="26"/>
       <c r="E41" s="26"/>
       <c r="F41" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H41" s="26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="42" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B42" s="27">
         <v>10</v>
       </c>
       <c r="C42" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D42" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H42" s="26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B43" s="27">
         <v>1</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D43" s="26"/>
       <c r="E43" s="23"/>
       <c r="F43" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H43" s="26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="44" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="27">
         <v>2</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="23"/>
       <c r="F44" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H44" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:84" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45" s="27">
         <v>3</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="27"/>
       <c r="E45" s="27"/>
       <c r="F45" s="18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H45" s="26" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
